--- a/va_facility_data_2025-02-20/Nevada VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Nevada%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Nevada VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Nevada%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R902f9b6318b344e3b08aa248f51f6d45"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R96ec4b125ff34adfbb2a98a3895da5a5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2db62bac5474ea9861122ec626e1670"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R15340166a6524a09bb96bec8bb170a3a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rebf4639c5aa6480fa468f3342e06d3c8"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reae2150f39104ce59a6ac3b0aa504f69"/>
   </x:sheets>
 </x:workbook>
 </file>
